--- a/va_facility_data_2025-02-20/Jacksonville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jacksonville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jacksonville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jacksonville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re8a057012f5241b5bc55311c9d2b3d0f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R596653e456bf459ea904eb8a533df025"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd7d3cee8beca418eaa58f5362a4601db"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3b4ed743ea784da6aa4a53c7f4228719"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3312196549b3498b9cb5bcf4a2a5ba09"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R22f435e2ea9b4fea84784b98ddaf0b16"/>
   </x:sheets>
 </x:workbook>
 </file>
